--- a/Output_testing/R1_201907/Country/HKD/MN/GHANA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/GHANA_201907_HKD_MN.xlsx
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>133</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/GHANA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/GHANA_201907_HKD_MN.xlsx
@@ -658,8 +658,10 @@
       <c r="G10" s="8" t="n">
         <v>4.040207</v>
       </c>
-      <c r="H10" s="9" t="n">
-        <v>3914.752801288073</v>
+      <c r="H10" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
       <c r="I10" s="9" t="n">
         <v>-98.62064442453146</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/GHANA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/GHANA_201907_HKD_MN.xlsx
@@ -812,136 +812,461 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>948.69808</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>64.26188754288897</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>867.261206</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>80.4179035737823</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>641.403105</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>74.79149252546782</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>367.609827</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>61.7406672184247</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-5.339697453108783</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>METERS AND COUNTERS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>120.995505</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>20.32139148753018</v>
+      </c>
+      <c r="K19" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>34.038676</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>2.305675130301553</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>49.591941</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>4.598476101298945</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>66.990634</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>7.811514261514763</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>36.765114</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>6.174760580384177</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>13.44411150671487</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>60.678688</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>4.110187536698763</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>64.03967400000001</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>5.938160606054428</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>66.75085300000001</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>7.783554342503692</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>23.018043</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>3.865917689089389</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-48.39345386825518</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>INSECTICIDES, RODENTICIDES, FUNGICIDES, HERBICIDES, ANTI-SPROUTING PRODUCTS AND PLANT-GROWTH REGULATORS, DISINFECTANTS AND SIMILAR PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>5.764282</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.5345004144553989</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>19.60316</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.285847360554249</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>9.333280999999999</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.567539695496351</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>22.2297102890797</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>1.107551</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.07502209534356201</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>2.414591</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.2238960360093895</v>
+      </c>
+      <c r="G23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H23" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>6.520101</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.09506154761069</v>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>2.268794</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.1536811214859645</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>2.781525</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.2579204600534903</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>2.409892</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.2810080245950551</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>3.284842</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.5516945464765952</v>
+      </c>
+      <c r="K24" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>4.144525</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.2807373653256386</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>10.073782</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.9341043089379277</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>6.924177</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.8074010373562445</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>2.987844</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.5018132502332886</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-33.40577059764755</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>3.073056</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.2081593535901329</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>2.425718</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.2249278013032535</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>3.79453</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.4424652140289583</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>2.595719</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.43595521991185</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>63.24506705658539</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>3.066343</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.2077046356348953</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>2.862237</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.2654045833929668</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>3.145018</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.3667281751613313</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>1.729639</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.2904956779270454</v>
+      </c>
+      <c r="K27" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>419.224029</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>28.39694521873052</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>71.227987</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>6.604706114711903</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>46.290821</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>5.397790509322946</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>20.569632</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>3.454703086915736</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-15.53573271989086</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -973,136 +1298,573 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>60.678688</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>98.85323048769273</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>64.03967400000001</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>99.62235716284039</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>66.75085300000001</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>97.57983324426273</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>23.018043</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>97.25412872961367</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-48.39345386825518</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>1.050175</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>1.535199877929554</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>0.559104</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>2.362284768919839</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>FURNITURE AND PARTS THEREOF; BEDDING, MATTRESSES, MATTRESS SUPPORTS, CUSHIONS AND SIMILAR STUFFED FURNISHINGS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>0.147879405105659</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>0.07181930135720338</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>0.1078759134616482</v>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>0.09411467853510155</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>76.37976086784386</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.1115039024492362</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.1642828323607918</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.1986086039140021</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-84.18580686074394</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.4236007033376789</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.1259969790546797</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.1729088283405332</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.7589299932774114</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>0.2283578548026758</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1134,136 +1896,461 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>948.69808</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>67.04972716716767</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>867.261206</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>85.51518192567448</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>641.403105</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>81.27442983143155</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>367.609827</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>64.29649664139454</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-5.339697453108783</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>METERS AND COUNTERS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D45" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E45" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F45" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G45" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>120.995505</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>21.16262001030875</v>
+      </c>
+      <c r="K45" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>34.038676</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>2.405701020214585</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>49.591941</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>4.889949910502875</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>66.990634</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>8.488617438788532</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>36.765114</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>6.430372245792785</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>13.44411150671487</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>INSECTICIDES, RODENTICIDES, FUNGICIDES, HERBICIDES, ANTI-SPROUTING PRODUCTS AND PLANT-GROWTH REGULATORS, DISINFECTANTS AND SIMILAR PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>5.764282</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.568379653662141</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>19.60316</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>2.483984937825216</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>9.333280999999999</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>1.632429892766962</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>22.2297102890797</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>1.107551</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.07827673939608239</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>2.414591</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.2380876571124943</v>
+      </c>
+      <c r="G48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H48" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>6.520101</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.140392941802541</v>
+      </c>
+      <c r="K48" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>2.268794</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.1603481886444916</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>2.781525</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.2742687148464608</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>2.409892</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.305365840496404</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>3.284842</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>0.574532607966739</v>
+      </c>
+      <c r="K49" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>4.144525</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.2929164465975367</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>10.073782</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.9933123889892811</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>6.924177</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.8773866751501184</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>2.987844</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.5225864152728725</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-33.40577059764755</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>3.073056</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.2171898212015224</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>2.425718</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.239184820715229</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>3.79453</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.4808181622823013</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>2.595719</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.4540021123143261</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>63.24506705658539</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>3.066343</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.2167153764567062</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>2.862237</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.2822272183697754</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>3.145018</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.3985162260160702</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>1.729639</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.3025210970606752</v>
+      </c>
+      <c r="K52" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>1.03918</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.07344458363147241</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>1.613152</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.1590627896179247</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>1.522021</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.1928606020179233</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>1.372912</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.2401280523899876</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>78.88383922615077</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>417.480932</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>29.50568065668993</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>69.372077</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>6.840344920509334</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>43.113251</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>5.463030761605677</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>18.546829</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>3.243917982929817</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-20.02029804971405</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1295,136 +2382,497 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>10.787925</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>14.95937851531546</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>5.278774</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>9.884039283800949</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>6.455662</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>18.19387684242376</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>3.344149</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>27.67596170095635</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-21.12283156417967</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>4.24057</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>5.880305225582424</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>6.888722</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>12.89852508616278</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>11.490043</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>32.38218284292969</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>2.66514</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>22.05652695728773</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-55.18234697635467</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>3.346593</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>6.266200575908965</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>3.909061</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>11.01683675562969</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>1.791252</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>14.82428616331434</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>HIDES AND SKINS (EXCEPT FURSKINS), RAW</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>43.503762</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>60.3257106995272</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>28.054026</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>52.5286922783156</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>6.430881</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>18.12403699299668</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>1.668778</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>13.81069922883177</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-65.91181281155059</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>VENEERS, PLYWOOD, PARTICLE BOARD, AND OTHER WOOD, WORKED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>2.180256</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>3.023313080531021</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>2.51624</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>4.711437732979532</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>2.862386</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>8.067011308751599</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>1.310398</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>10.84476943491746</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-35.02504494802095</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>3.88675176645707</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>1.440304</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.9972379037788</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>0.83491</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.563295423982586</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>1.377080286770352</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.550163342140584</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>33.50924168768034</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.756004563681917</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>POLYACETALS, OTHER POLYETHERS AND EPOXIDE RESINS, IN PRIMARY FORMS; POLYCARBONATES, ALKYD RESINS AND OTHER POLYESTERS, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.215279760554011</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>4.98427</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>6.911577671566254</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>5.733326</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>10.73514786024887</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>3.45026</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>9.723806096778457</v>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.6133130341185375</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-36.57851946940522</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>4.977707</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>6.902476903698844</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>0.754461</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>1.412661758600718</v>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>1.115168873719767</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>0.766244047740231</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-33.6717076560474</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
